--- a/analysis/plots/Use-wear_qualitative_stats.xlsx
+++ b/analysis/plots/Use-wear_qualitative_stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">area</t>
   </si>
@@ -102,190 +102,58 @@
     <t xml:space="preserve">specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick scraper</t>
+    <t xml:space="preserve">scraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramioul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-030</t>
   </si>
   <si>
     <t xml:space="preserve">Buhlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramioul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradnick spall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-030</t>
   </si>
   <si>
     <t xml:space="preserve">BU-194</t>
@@ -618,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1534,7 +1402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2274,7 +2142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2294,666 +2162,6 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +2176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2988,1066 +2196,6 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +2210,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -4086,16 +2234,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -4106,16 +2254,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -4126,16 +2274,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4146,16 +2294,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -4166,16 +2314,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -4186,16 +2334,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -4206,16 +2354,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4226,16 +2374,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -4246,16 +2394,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -4266,16 +2414,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4286,16 +2434,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -4306,16 +2454,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -4326,16 +2474,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -4346,16 +2494,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -4366,16 +2514,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -4386,16 +2534,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -4406,16 +2554,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -4426,16 +2574,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -4446,16 +2594,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -4466,16 +2614,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -4486,16 +2634,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -4506,16 +2654,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -4526,16 +2674,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -4546,16 +2694,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -4566,16 +2714,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -4586,16 +2734,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -4606,16 +2754,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -4626,16 +2774,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -4646,16 +2794,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -4666,16 +2814,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -4686,16 +2834,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -4706,16 +2854,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -4726,16 +2874,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -4746,16 +2894,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -4766,16 +2914,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4786,16 +2934,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -4806,16 +2954,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -4826,16 +2974,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -4846,16 +2994,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -4866,16 +3014,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>

--- a/analysis/plots/Use-wear_qualitative_stats.xlsx
+++ b/analysis/plots/Use-wear_qualitative_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">area</t>
   </si>
@@ -102,18 +102,153 @@
     <t xml:space="preserve">specimen</t>
   </si>
   <si>
+    <t xml:space="preserve">Pradnik scraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramioul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradnik spall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-186</t>
+  </si>
+  <si>
     <t xml:space="preserve">scraper</t>
   </si>
   <si>
-    <t xml:space="preserve">Balve</t>
-  </si>
-  <si>
     <t xml:space="preserve">MU-285</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramioul</t>
-  </si>
-  <si>
     <t xml:space="preserve">R-015</t>
   </si>
   <si>
@@ -151,9 +286,6 @@
   </si>
   <si>
     <t xml:space="preserve">MU-030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhlen</t>
   </si>
   <si>
     <t xml:space="preserve">BU-194</t>
@@ -162,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -481,10 +613,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1397,10 +1529,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2137,10 +2269,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2162,6 +2294,666 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2171,10 +2963,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2196,6 +2988,1066 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2205,10 +4057,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2234,16 +4086,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -2254,16 +4106,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -2274,16 +4126,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2294,16 +4146,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2314,16 +4166,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -2334,16 +4186,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -2354,16 +4206,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -2374,16 +4226,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2394,16 +4246,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2414,16 +4266,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -2434,16 +4286,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2454,16 +4306,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2474,16 +4326,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -2494,16 +4346,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -2514,16 +4366,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -2534,16 +4386,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2554,16 +4406,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -2574,16 +4426,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -2594,16 +4446,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -2614,16 +4466,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -2634,16 +4486,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -2654,16 +4506,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -2674,16 +4526,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -2694,16 +4546,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -2714,16 +4566,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2734,16 +4586,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -2754,16 +4606,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -2774,16 +4626,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -2794,16 +4646,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -2814,16 +4666,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2834,16 +4686,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -2854,16 +4706,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2874,16 +4726,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -2894,16 +4746,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2914,16 +4766,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -2934,16 +4786,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -2954,16 +4806,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -2974,16 +4826,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2994,16 +4846,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -3014,16 +4866,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
